--- a/result.xlsx
+++ b/result.xlsx
@@ -14,22 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="89">
-  <si>
-    <t>《健美操》课程思政教改项目</t>
-  </si>
-  <si>
-    <t>冯道光</t>
-  </si>
-  <si>
-    <t>副教授</t>
-  </si>
-  <si>
-    <t>13501518072</t>
-  </si>
-  <si>
-    <t>1035010393@qq.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
   <si>
     <t>“德才兼备”的光电专业
 课程思政模式的探索</t>
@@ -73,6 +58,9 @@
     <t>陈友芳</t>
   </si>
   <si>
+    <t>副教授</t>
+  </si>
+  <si>
     <t>18613126097</t>
   </si>
   <si>
@@ -310,12 +298,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,7 +315,38 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -339,8 +358,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,31 +374,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,35 +420,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,51 +455,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -484,13 +465,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,169 +615,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,6 +656,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -705,221 +751,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1271,10 +1252,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F22"/>
+  <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1283,375 +1264,358 @@
     <col min="5" max="5" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="2" spans="2:6">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
         <v>53</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
